--- a/image/clinicaluseissue.xlsx
+++ b/image/clinicaluseissue.xlsx
@@ -871,42 +871,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.08203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="41.93359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="65.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="41.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.1015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="66.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/clinicaluseissue.xlsx
+++ b/image/clinicaluseissue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="236">
   <si>
     <t>Path</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>A single item of clinical particulars - an indication, contraindication, interaction etc. for a medicinal product</t>
   </si>
   <si>
     <t>A single item of clinical particulars - an indication, contraindication, interaction etc. for a medicinal product.</t>
@@ -153,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -323,6 +326,19 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>ClinicalUseIssue.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for this issue</t>
+  </si>
+  <si>
+    <t>Business identifier for this issue.</t>
+  </si>
+  <si>
     <t>ClinicalUseIssue.type</t>
   </si>
   <si>
@@ -344,7 +360,7 @@
     <t>ClinicalUseIssue.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RegulatedMedicinalProduct|Medication|ActivityDefinition|PlanDefinition|Device|DeviceDefinition|Substance)
+    <t xml:space="preserve">Reference(MedicinalProductDefinition|Medication|ActivityDefinition|PlanDefinition|Device|DeviceDefinition|Substance)
 </t>
   </si>
   <si>
@@ -354,17 +370,20 @@
     <t>The medication or procedure for which this is an indication.</t>
   </si>
   <si>
+    <t>ClinicalUseIssue.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>General description</t>
+  </si>
+  <si>
+    <t>General description.</t>
+  </si>
+  <si>
     <t>ClinicalUseIssue.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>General description</t>
-  </si>
-  <si>
-    <t>General description.</t>
   </si>
   <si>
     <t>ClinicalUseIssue.contraindication</t>
@@ -428,14 +447,10 @@
     <t>ClinicalUseIssue.contraindication.diseaseSymptomProcedure</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The disease, symptom or procedure for the contraindication</t>
-  </si>
-  <si>
-    <t>The disease, symptom or procedure for the contraindication.</t>
+    <t>The situation that is being documented as contraindicating against this item</t>
+  </si>
+  <si>
+    <t>The situation that is being documented as contraindicating against this item.</t>
   </si>
   <si>
     <t>ClinicalUseIssue.contraindication.diseaseStatus</t>
@@ -500,7 +515,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(RegulatedMedicinalProduct|Medication|Substance|SubstanceDefinition)</t>
+Reference(MedicinalProductDefinition|Medication|Substance|SubstanceDefinition)</t>
   </si>
   <si>
     <t>Reference to a specific medication (active substance, medicinal product or class of products) as part of an indication or contraindication</t>
@@ -530,10 +545,10 @@
     <t>ClinicalUseIssue.indication.diseaseSymptomProcedure</t>
   </si>
   <si>
-    <t>The disease, symptom or procedure for the indication</t>
-  </si>
-  <si>
-    <t>The disease, symptom or procedure for the indication.</t>
+    <t>The situation that is being documented as an indicaton for this item</t>
+  </si>
+  <si>
+    <t>The situation that is being documented as an indicaton for this item.</t>
   </si>
   <si>
     <t>ClinicalUseIssue.indication.diseaseStatus</t>
@@ -633,7 +648,7 @@
     <t>ClinicalUseIssue.interaction.interactant.item[x]</t>
   </si>
   <si>
-    <t>Reference(RegulatedMedicinalProduct|Medication|Substance|ObservationDefinition)
+    <t>Reference(MedicinalProductDefinition|Medication|Substance|ObservationDefinition)
 CodeableConcept</t>
   </si>
   <si>
@@ -689,7 +704,7 @@
     <t>ClinicalUseIssue.undesirableEffect</t>
   </si>
   <si>
-    <t>UndesirableEffect</t>
+    <t>A possible negative outcome from the use of this treatment</t>
   </si>
   <si>
     <t>Describe the undesirable effects of the medicinal product.</t>
@@ -707,28 +722,28 @@
     <t>ClinicalUseIssue.undesirableEffect.symptomConditionEffect</t>
   </si>
   <si>
-    <t>The symptom, condition or undesirable effect</t>
-  </si>
-  <si>
-    <t>The symptom, condition or undesirable effect.</t>
+    <t>The situation in which the undesirable effect may manifest</t>
+  </si>
+  <si>
+    <t>The situation in which the undesirable effect may manifest.</t>
   </si>
   <si>
     <t>ClinicalUseIssue.undesirableEffect.classification</t>
   </si>
   <si>
-    <t>Classification of the effect</t>
-  </si>
-  <si>
-    <t>Classification of the effect.</t>
+    <t>High level classification of the effect</t>
+  </si>
+  <si>
+    <t>High level classification of the effect.</t>
   </si>
   <si>
     <t>ClinicalUseIssue.undesirableEffect.frequencyOfOccurrence</t>
   </si>
   <si>
-    <t>The frequency of occurrence of the effect</t>
-  </si>
-  <si>
-    <t>The frequency of occurrence of the effect.</t>
+    <t>How often the effect is seen</t>
+  </si>
+  <si>
+    <t>How often the effect is seen.</t>
   </si>
 </sst>
 </file>
@@ -862,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AJ61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -871,42 +886,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="41.4765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.1015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="66.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="41.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="65.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1047,10 +1062,10 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1113,15 +1128,15 @@
         <v>37</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1132,7 +1147,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -1141,19 +1156,19 @@
         <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1203,13 +1218,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -1223,7 +1238,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1234,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -1243,16 +1258,16 @@
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1303,13 +1318,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -1323,7 +1338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1334,28 +1349,28 @@
         <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1405,13 +1420,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -1425,7 +1440,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1436,7 +1451,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1448,16 +1463,16 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1483,13 +1498,13 @@
         <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>37</v>
@@ -1507,13 +1522,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1527,18 +1542,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1550,16 +1565,16 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1609,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1624,16 +1639,16 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1652,16 +1667,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1711,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1726,16 +1741,16 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1754,16 +1769,16 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1813,7 +1828,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1828,16 +1843,16 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1850,25 +1865,25 @@
         <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1917,7 +1932,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1932,12 +1947,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1945,10 +1960,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1957,16 +1972,16 @@
         <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1993,13 +2008,13 @@
         <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>37</v>
@@ -2017,13 +2032,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -2037,7 +2052,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2045,10 +2060,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -2057,16 +2072,16 @@
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2093,13 +2108,13 @@
         <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>37</v>
@@ -2117,13 +2132,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -2137,7 +2152,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2148,7 +2163,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -2157,16 +2172,16 @@
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2217,13 +2232,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -2237,7 +2252,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2248,7 +2263,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -2257,16 +2272,16 @@
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2317,19 +2332,19 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>37</v>
@@ -2348,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2357,16 +2372,16 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2417,13 +2432,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2432,23 +2447,23 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2457,20 +2472,18 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2519,63 +2532,59 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>37</v>
       </c>
@@ -2623,13 +2632,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2638,23 +2647,23 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2663,18 +2672,20 @@
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2729,7 +2740,7 @@
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2738,44 +2749,48 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>37</v>
       </c>
@@ -2823,13 +2838,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2838,12 +2853,12 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2854,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2863,16 +2878,16 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2923,13 +2938,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2943,7 +2958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2954,7 +2969,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2963,16 +2978,16 @@
         <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3023,13 +3038,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -3043,7 +3058,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3063,16 +3078,16 @@
         <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3123,7 +3138,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -3135,7 +3150,7 @@
         <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>37</v>
@@ -3143,7 +3158,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3154,7 +3169,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -3163,16 +3178,16 @@
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3223,13 +3238,13 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -3238,16 +3253,16 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3263,20 +3278,18 @@
         <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>37</v>
@@ -3325,7 +3338,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3337,51 +3350,47 @@
         <v>37</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>37</v>
       </c>
@@ -3429,13 +3438,13 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3444,23 +3453,23 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3469,18 +3478,20 @@
         <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>37</v>
@@ -3529,13 +3540,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3544,44 +3555,48 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>37</v>
       </c>
@@ -3629,13 +3644,13 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3644,12 +3659,12 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3657,10 +3672,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3669,16 +3684,16 @@
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3729,19 +3744,19 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>37</v>
@@ -3749,7 +3764,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3757,10 +3772,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3769,16 +3784,16 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3829,13 +3844,13 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
@@ -3844,23 +3859,23 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>37</v>
@@ -3869,20 +3884,18 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>37</v>
@@ -3931,63 +3944,59 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>37</v>
       </c>
@@ -4035,13 +4044,13 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -4050,23 +4059,23 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>37</v>
@@ -4075,18 +4084,20 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>37</v>
@@ -4135,13 +4146,13 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>37</v>
@@ -4150,44 +4161,48 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>37</v>
       </c>
@@ -4235,13 +4250,13 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>37</v>
@@ -4250,12 +4265,12 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4266,7 +4281,7 @@
         <v>38</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>37</v>
@@ -4275,16 +4290,16 @@
         <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4335,13 +4350,13 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>37</v>
@@ -4355,7 +4370,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4366,7 +4381,7 @@
         <v>38</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>37</v>
@@ -4375,16 +4390,16 @@
         <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4435,13 +4450,13 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>37</v>
@@ -4455,7 +4470,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4466,7 +4481,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>37</v>
@@ -4475,16 +4490,16 @@
         <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4535,13 +4550,13 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>37</v>
@@ -4555,7 +4570,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4566,7 +4581,7 @@
         <v>38</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>37</v>
@@ -4575,16 +4590,16 @@
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4635,13 +4650,13 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
@@ -4655,7 +4670,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4666,7 +4681,7 @@
         <v>38</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
@@ -4675,16 +4690,16 @@
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4735,13 +4750,13 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>37</v>
@@ -4755,7 +4770,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4766,7 +4781,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>37</v>
@@ -4775,16 +4790,16 @@
         <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4835,19 +4850,19 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>37</v>
@@ -4855,7 +4870,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4866,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>37</v>
@@ -4875,16 +4890,16 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4935,13 +4950,13 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>37</v>
@@ -4950,23 +4965,23 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>37</v>
@@ -4975,20 +4990,18 @@
         <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>37</v>
@@ -5037,63 +5050,59 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>37</v>
       </c>
@@ -5141,13 +5150,13 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>37</v>
@@ -5156,16 +5165,16 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5181,18 +5190,20 @@
         <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>37</v>
@@ -5241,7 +5252,7 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
@@ -5253,47 +5264,51 @@
         <v>37</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>37</v>
       </c>
@@ -5341,13 +5356,13 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>37</v>
@@ -5356,16 +5371,16 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5381,20 +5396,18 @@
         <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>37</v>
@@ -5443,7 +5456,7 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
@@ -5455,51 +5468,47 @@
         <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>37</v>
       </c>
@@ -5547,13 +5556,13 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>37</v>
@@ -5562,23 +5571,23 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>37</v>
@@ -5587,18 +5596,20 @@
         <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>37</v>
@@ -5647,13 +5658,13 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>37</v>
@@ -5662,44 +5673,48 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>37</v>
       </c>
@@ -5747,13 +5762,13 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>37</v>
@@ -5762,7 +5777,7 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
@@ -5775,10 +5790,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>37</v>
@@ -5787,16 +5802,16 @@
         <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5850,10 +5865,10 @@
         <v>203</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>37</v>
@@ -5867,7 +5882,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5878,7 +5893,7 @@
         <v>38</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>37</v>
@@ -5887,16 +5902,16 @@
         <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5947,13 +5962,13 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>37</v>
@@ -5967,7 +5982,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5978,7 +5993,7 @@
         <v>38</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>37</v>
@@ -5987,16 +6002,16 @@
         <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6047,13 +6062,13 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>37</v>
@@ -6067,7 +6082,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6078,7 +6093,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>37</v>
@@ -6087,16 +6102,16 @@
         <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6147,13 +6162,13 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>37</v>
@@ -6167,7 +6182,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6178,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>37</v>
@@ -6187,16 +6202,16 @@
         <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6247,19 +6262,19 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>37</v>
@@ -6267,7 +6282,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6278,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>37</v>
@@ -6287,16 +6302,16 @@
         <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6347,13 +6362,13 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>37</v>
@@ -6362,23 +6377,23 @@
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>37</v>
@@ -6387,20 +6402,18 @@
         <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>37</v>
@@ -6449,63 +6462,59 @@
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>37</v>
       </c>
@@ -6553,13 +6562,13 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>37</v>
@@ -6568,23 +6577,23 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>37</v>
@@ -6593,18 +6602,20 @@
         <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>37</v>
@@ -6653,13 +6664,13 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>37</v>
@@ -6668,44 +6679,48 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>37</v>
       </c>
@@ -6753,13 +6768,13 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>37</v>
@@ -6768,12 +6783,12 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6784,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>37</v>
@@ -6793,16 +6808,16 @@
         <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6853,13 +6868,13 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>37</v>
@@ -6868,6 +6883,206 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>37</v>
       </c>
     </row>
